--- a/tut06/output/2001CB33.xlsx
+++ b/tut06/output/2001CB33.xlsx
@@ -493,7 +493,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -559,7 +559,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -581,7 +581,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -603,7 +603,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -647,7 +647,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -801,7 +801,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
